--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1BA52-9A93-4CA1-B9D7-4A6FB54921DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55DB6D-43C6-4AA8-BAA7-505BB6E6F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>EMPLOYEE_NUMBER</t>
   </si>
@@ -53,226 +53,316 @@
     <t>LOCATION</t>
   </si>
   <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>hyd</t>
-  </si>
-  <si>
-    <t>viz</t>
-  </si>
-  <si>
-    <t>try111</t>
-  </si>
-  <si>
-    <t>try112</t>
-  </si>
-  <si>
-    <t>lasttry111</t>
-  </si>
-  <si>
-    <t>lasttry112</t>
-  </si>
-  <si>
-    <t>try113</t>
-  </si>
-  <si>
-    <t>try114</t>
-  </si>
-  <si>
-    <t>try115</t>
-  </si>
-  <si>
-    <t>try116</t>
-  </si>
-  <si>
-    <t>try117</t>
-  </si>
-  <si>
-    <t>try118</t>
-  </si>
-  <si>
-    <t>try119</t>
-  </si>
-  <si>
-    <t>try120</t>
-  </si>
-  <si>
-    <t>lasttry113</t>
-  </si>
-  <si>
-    <t>lasttry114</t>
-  </si>
-  <si>
-    <t>lasttry115</t>
-  </si>
-  <si>
-    <t>lasttry116</t>
-  </si>
-  <si>
-    <t>lasttry117</t>
-  </si>
-  <si>
-    <t>lasttry118</t>
-  </si>
-  <si>
-    <t>lasttry119</t>
-  </si>
-  <si>
-    <t>lasttry120</t>
-  </si>
-  <si>
-    <t>try121</t>
-  </si>
-  <si>
-    <t>lasttry121</t>
-  </si>
-  <si>
-    <t>try122</t>
-  </si>
-  <si>
-    <t>lasttry122</t>
-  </si>
-  <si>
-    <t>try123</t>
-  </si>
-  <si>
-    <t>lasttry123</t>
-  </si>
-  <si>
-    <t>try124</t>
-  </si>
-  <si>
-    <t>lasttry124</t>
-  </si>
-  <si>
-    <t>try125</t>
-  </si>
-  <si>
-    <t>lasttry125</t>
-  </si>
-  <si>
-    <t>try126</t>
-  </si>
-  <si>
-    <t>lasttry126</t>
-  </si>
-  <si>
-    <t>try127</t>
-  </si>
-  <si>
-    <t>lasttry127</t>
-  </si>
-  <si>
-    <t>try128</t>
-  </si>
-  <si>
-    <t>lasttry128</t>
-  </si>
-  <si>
-    <t>try129</t>
-  </si>
-  <si>
-    <t>lasttry129</t>
-  </si>
-  <si>
-    <t>try130</t>
-  </si>
-  <si>
-    <t>lasttry130</t>
-  </si>
-  <si>
-    <t>try131</t>
-  </si>
-  <si>
-    <t>lasttry131</t>
-  </si>
-  <si>
-    <t>try132</t>
-  </si>
-  <si>
-    <t>lasttry132</t>
-  </si>
-  <si>
-    <t>try133</t>
-  </si>
-  <si>
-    <t>lasttry133</t>
-  </si>
-  <si>
-    <t>try134</t>
-  </si>
-  <si>
-    <t>lasttry134</t>
-  </si>
-  <si>
-    <t>try135</t>
-  </si>
-  <si>
-    <t>lasttry135</t>
-  </si>
-  <si>
-    <t>try136</t>
-  </si>
-  <si>
-    <t>lasttry136</t>
-  </si>
-  <si>
-    <t>try137</t>
-  </si>
-  <si>
-    <t>lasttry137</t>
-  </si>
-  <si>
-    <t>try138</t>
-  </si>
-  <si>
-    <t>lasttry138</t>
-  </si>
-  <si>
-    <t>try139</t>
-  </si>
-  <si>
-    <t>lasttry139</t>
-  </si>
-  <si>
-    <t>try140</t>
-  </si>
-  <si>
-    <t>lasttry140</t>
-  </si>
-  <si>
-    <t>try141</t>
-  </si>
-  <si>
-    <t>lasttry141</t>
-  </si>
-  <si>
-    <t>try142</t>
-  </si>
-  <si>
-    <t>lasttry142</t>
-  </si>
-  <si>
-    <t>try143</t>
-  </si>
-  <si>
-    <t>lasttry143</t>
-  </si>
-  <si>
-    <t>try144</t>
-  </si>
-  <si>
-    <t>lasttry144</t>
-  </si>
-  <si>
-    <t>try145</t>
-  </si>
-  <si>
-    <t>lasttry145</t>
-  </si>
-  <si>
     <t>DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>Bengalore</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>First101</t>
+  </si>
+  <si>
+    <t>Last101</t>
+  </si>
+  <si>
+    <t>First102</t>
+  </si>
+  <si>
+    <t>Last102</t>
+  </si>
+  <si>
+    <t>First103</t>
+  </si>
+  <si>
+    <t>Last103</t>
+  </si>
+  <si>
+    <t>First104</t>
+  </si>
+  <si>
+    <t>Last104</t>
+  </si>
+  <si>
+    <t>First105</t>
+  </si>
+  <si>
+    <t>Last105</t>
+  </si>
+  <si>
+    <t>First106</t>
+  </si>
+  <si>
+    <t>Last106</t>
+  </si>
+  <si>
+    <t>First107</t>
+  </si>
+  <si>
+    <t>Last107</t>
+  </si>
+  <si>
+    <t>First108</t>
+  </si>
+  <si>
+    <t>Last108</t>
+  </si>
+  <si>
+    <t>First109</t>
+  </si>
+  <si>
+    <t>Last109</t>
+  </si>
+  <si>
+    <t>First110</t>
+  </si>
+  <si>
+    <t>Last110</t>
+  </si>
+  <si>
+    <t>First111</t>
+  </si>
+  <si>
+    <t>Last111</t>
+  </si>
+  <si>
+    <t>First112</t>
+  </si>
+  <si>
+    <t>Last112</t>
+  </si>
+  <si>
+    <t>First113</t>
+  </si>
+  <si>
+    <t>Last113</t>
+  </si>
+  <si>
+    <t>First114</t>
+  </si>
+  <si>
+    <t>Last114</t>
+  </si>
+  <si>
+    <t>First115</t>
+  </si>
+  <si>
+    <t>Last115</t>
+  </si>
+  <si>
+    <t>First116</t>
+  </si>
+  <si>
+    <t>Last116</t>
+  </si>
+  <si>
+    <t>First117</t>
+  </si>
+  <si>
+    <t>Last117</t>
+  </si>
+  <si>
+    <t>First118</t>
+  </si>
+  <si>
+    <t>Last118</t>
+  </si>
+  <si>
+    <t>First119</t>
+  </si>
+  <si>
+    <t>Last119</t>
+  </si>
+  <si>
+    <t>First120</t>
+  </si>
+  <si>
+    <t>Last120</t>
+  </si>
+  <si>
+    <t>First121</t>
+  </si>
+  <si>
+    <t>Last121</t>
+  </si>
+  <si>
+    <t>First122</t>
+  </si>
+  <si>
+    <t>Last122</t>
+  </si>
+  <si>
+    <t>First123</t>
+  </si>
+  <si>
+    <t>Last123</t>
+  </si>
+  <si>
+    <t>First124</t>
+  </si>
+  <si>
+    <t>Last124</t>
+  </si>
+  <si>
+    <t>First125</t>
+  </si>
+  <si>
+    <t>Last125</t>
+  </si>
+  <si>
+    <t>First126</t>
+  </si>
+  <si>
+    <t>Last126</t>
+  </si>
+  <si>
+    <t>First127</t>
+  </si>
+  <si>
+    <t>Last127</t>
+  </si>
+  <si>
+    <t>First128</t>
+  </si>
+  <si>
+    <t>Last128</t>
+  </si>
+  <si>
+    <t>First129</t>
+  </si>
+  <si>
+    <t>Last129</t>
+  </si>
+  <si>
+    <t>First130</t>
+  </si>
+  <si>
+    <t>Last130</t>
+  </si>
+  <si>
+    <t>First131</t>
+  </si>
+  <si>
+    <t>Last131</t>
+  </si>
+  <si>
+    <t>First132</t>
+  </si>
+  <si>
+    <t>Last132</t>
+  </si>
+  <si>
+    <t>First133</t>
+  </si>
+  <si>
+    <t>Last133</t>
+  </si>
+  <si>
+    <t>First134</t>
+  </si>
+  <si>
+    <t>Last134</t>
+  </si>
+  <si>
+    <t>First135</t>
+  </si>
+  <si>
+    <t>Last135</t>
+  </si>
+  <si>
+    <t>First136</t>
+  </si>
+  <si>
+    <t>Last136</t>
+  </si>
+  <si>
+    <t>First137</t>
+  </si>
+  <si>
+    <t>Last137</t>
+  </si>
+  <si>
+    <t>First138</t>
+  </si>
+  <si>
+    <t>Last138</t>
+  </si>
+  <si>
+    <t>First139</t>
+  </si>
+  <si>
+    <t>Last139</t>
+  </si>
+  <si>
+    <t>First140</t>
+  </si>
+  <si>
+    <t>Last140</t>
+  </si>
+  <si>
+    <t>First141</t>
+  </si>
+  <si>
+    <t>Last141</t>
+  </si>
+  <si>
+    <t>First142</t>
+  </si>
+  <si>
+    <t>Last142</t>
+  </si>
+  <si>
+    <t>First143</t>
+  </si>
+  <si>
+    <t>Last143</t>
+  </si>
+  <si>
+    <t>First144</t>
+  </si>
+  <si>
+    <t>Last144</t>
+  </si>
+  <si>
+    <t>First145</t>
+  </si>
+  <si>
+    <t>Last145</t>
+  </si>
+  <si>
+    <t>First146</t>
+  </si>
+  <si>
+    <t>Last146</t>
+  </si>
+  <si>
+    <t>First147</t>
+  </si>
+  <si>
+    <t>Last147</t>
+  </si>
+  <si>
+    <t>First148</t>
+  </si>
+  <si>
+    <t>Last148</t>
+  </si>
+  <si>
+    <t>First149</t>
+  </si>
+  <si>
+    <t>Last149</t>
+  </si>
+  <si>
+    <t>First150</t>
+  </si>
+  <si>
+    <t>Last150</t>
   </si>
 </sst>
 </file>
@@ -633,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +736,7 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -671,10 +761,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -683,386 +773,386 @@
         <v>45344</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,"@gamil.com")</f>
-        <v>lasttry111@gamil.com</v>
+        <f>_xlfn.CONCAT("fl",A2,"@gamil.com")</f>
+        <v>fl101@gamil.com</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>45345</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E9" si="0">_xlfn.CONCAT(C3,"@gamil.com")</f>
-        <v>lasttry112@gamil.com</v>
+        <f t="shared" ref="E3:E58" si="0">_xlfn.CONCAT("fl",A3,"@gamil.com")</f>
+        <v>fl102@gamil.com</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>45346</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry113@gamil.com</v>
+        <v>fl103@gamil.com</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>45347</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry114@gamil.com</v>
+        <v>fl104@gamil.com</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>45348</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry115@gamil.com</v>
+        <v>fl105@gamil.com</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry116@gamil.com</v>
+        <v>fl106@gamil.com</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry117@gamil.com</v>
+        <v>fl107@gamil.com</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>lasttry118@gamil.com</v>
+        <v>fl108@gamil.com</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" ref="E10:E12" si="1">_xlfn.CONCAT(C10,"@gamil.com")</f>
-        <v>lasttry119@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl109@gamil.com</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>45348</v>
+        <v>45353</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>lasttry120@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl110@gamil.com</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>45349</v>
+        <v>45354</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>lasttry121@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl111@gamil.com</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" ref="E13:E24" si="2">_xlfn.CONCAT(C13,"@gamil.com")</f>
-        <v>lasttry122@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl112@gamil.com</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry123@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl113@gamil.com</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry124@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl114@gamil.com</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry125@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl115@gamil.com</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
-        <v>45354</v>
+        <v>45359</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry126@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl116@gamil.com</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
-        <v>45355</v>
+        <v>45360</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry127@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl117@gamil.com</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1">
-        <v>45356</v>
+        <v>45361</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry128@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl118@gamil.com</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry129@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl119@gamil.com</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -1070,20 +1160,20 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry130@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl120@gamil.com</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1091,41 +1181,41 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry131@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl121@gamil.com</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>45360</v>
+        <v>45365</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry132@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl122@gamil.com</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1133,20 +1223,20 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
-        <v>45361</v>
+        <v>45366</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>lasttry133@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl123@gamil.com</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1154,125 +1244,125 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
-        <v>45362</v>
+        <v>45367</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" ref="E25:E29" si="3">_xlfn.CONCAT(C25,"@gamil.com")</f>
-        <v>lasttry134@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl124@gamil.com</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
-        <v>45363</v>
+        <v>45368</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>lasttry135@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl125@gamil.com</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>lasttry136@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl126@gamil.com</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>lasttry137@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl127@gamil.com</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>lasttry138@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl128@gamil.com</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" ref="E30:E36" si="4">_xlfn.CONCAT(C30,"@gamil.com")</f>
-        <v>lasttry139@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl129@gamil.com</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1280,41 +1370,41 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>45368</v>
+        <v>45373</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry140@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl130@gamil.com</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
-        <v>45369</v>
+        <v>45374</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry141@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl131@gamil.com</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -1322,20 +1412,20 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>45370</v>
+        <v>45375</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry142@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl132@gamil.com</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1343,102 +1433,411 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry143@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl133@gamil.com</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry144@gamil.com</v>
+        <f t="shared" si="0"/>
+        <v>fl134@gamil.com</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45378</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl135@gamil.com</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45379</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl136@gamil.com</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45380</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl137@gamil.com</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45381</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl138@gamil.com</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45382</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl139@gamil.com</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl140@gamil.com</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45384</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl141@gamil.com</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45385</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl142@gamil.com</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45386</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl143@gamil.com</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45387</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl144@gamil.com</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>145</v>
       </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1">
-        <v>45373</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>lasttry145@gamil.com</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45388</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl145@gamil.com</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45389</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl146@gamil.com</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45390</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl147@gamil.com</v>
+      </c>
+      <c r="F48" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45391</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl148@gamil.com</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl149@gamil.com</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>fl150@gamil.com</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3:E11" r:id="rId1" display="pras@11712" xr:uid="{1CB42FCB-B8C6-46AD-949E-616B59155F02}"/>
-    <hyperlink ref="E2" r:id="rId2" display="pras@11712" xr:uid="{434D6885-CEFA-41C3-9A7E-8D7C194C36D8}"/>
-    <hyperlink ref="E10" r:id="rId3" display="pras@11712" xr:uid="{9EB630ED-BA6B-4817-87E1-429CC078D733}"/>
-    <hyperlink ref="E11" r:id="rId4" display="pras@11712" xr:uid="{B7062F46-5287-4547-938D-BD62B7AD2D78}"/>
-    <hyperlink ref="E12" r:id="rId5" display="pras@11712" xr:uid="{1BDBB140-6179-4A93-9741-CEA3FDBDF536}"/>
-    <hyperlink ref="E13" r:id="rId6" display="pras@11712" xr:uid="{3425D226-D5E2-42CC-87C2-7F5441284D3F}"/>
-    <hyperlink ref="E14" r:id="rId7" display="pras@11712" xr:uid="{45792393-A3CB-4363-8E80-24AEEB3A41CF}"/>
-    <hyperlink ref="E15" r:id="rId8" display="pras@11712" xr:uid="{E09B9D9B-68BC-4A72-8FDB-2A3852370743}"/>
-    <hyperlink ref="E16" r:id="rId9" display="pras@11712" xr:uid="{216FE337-2F5E-4917-95CD-18F4BFDA5886}"/>
-    <hyperlink ref="E17" r:id="rId10" display="pras@11712" xr:uid="{B682847F-FFE1-4726-8831-EBA55986BA5F}"/>
-    <hyperlink ref="E18" r:id="rId11" display="pras@11712" xr:uid="{9E2A2666-E068-480B-8B4F-CBC7E29C3872}"/>
-    <hyperlink ref="E19" r:id="rId12" display="pras@11712" xr:uid="{156CEA25-CD39-4A31-B697-5DDD2D48069A}"/>
-    <hyperlink ref="E20" r:id="rId13" display="pras@11712" xr:uid="{67EA19E3-C0F1-4816-ADF0-6C4DDC9C42D0}"/>
-    <hyperlink ref="E21" r:id="rId14" display="pras@11712" xr:uid="{8F48B05C-6A0A-4566-B6AD-7FA08756A746}"/>
-    <hyperlink ref="E22" r:id="rId15" display="pras@11712" xr:uid="{F75DDE2A-1321-44A6-813B-F708C6F4C4EB}"/>
-    <hyperlink ref="E23" r:id="rId16" display="pras@11712" xr:uid="{30D29280-79C5-4683-97F5-6C4A81F542B6}"/>
-    <hyperlink ref="E24" r:id="rId17" display="pras@11712" xr:uid="{13482D06-2AC8-48EB-81C6-A0B6894B0767}"/>
-    <hyperlink ref="E25" r:id="rId18" display="pras@11712" xr:uid="{20CB652D-1E0E-41E3-8C87-8D85BBF1B6E1}"/>
-    <hyperlink ref="E27" r:id="rId19" display="pras@11712" xr:uid="{0EAFCABE-5CEE-444F-95B6-56302B0BAD55}"/>
-    <hyperlink ref="E29" r:id="rId20" display="pras@11712" xr:uid="{4627B407-7F39-4FC2-8F52-19294E10979D}"/>
-    <hyperlink ref="E26" r:id="rId21" display="pras@11712" xr:uid="{D4FA11B1-E9F6-44C0-98CA-293E727FD83E}"/>
-    <hyperlink ref="E28" r:id="rId22" display="pras@11712" xr:uid="{59D059C3-2951-4999-911A-D7CBA5D2D331}"/>
-    <hyperlink ref="E31" r:id="rId23" display="pras@11712" xr:uid="{E684BDBC-420D-4A60-BF99-3FAD324C42D1}"/>
-    <hyperlink ref="E33" r:id="rId24" display="pras@11712" xr:uid="{79E9817E-0EB9-45DE-8FA4-F79AE5944DAD}"/>
-    <hyperlink ref="E35" r:id="rId25" display="pras@11712" xr:uid="{5D41C3E9-5F9D-40F1-A7F8-D4B74969243E}"/>
-    <hyperlink ref="A1" r:id="rId26" display="pras@11712" xr:uid="{3D202DB2-124F-4F6B-84CD-93F645C87387}"/>
-    <hyperlink ref="E30" r:id="rId27" display="pras@11712" xr:uid="{B22CE4F9-1ED0-4163-9942-5DC6282818B4}"/>
-    <hyperlink ref="E32" r:id="rId28" display="pras@11712" xr:uid="{1ECED1B7-3D6F-404D-BF85-BFE13BC1E9C6}"/>
-    <hyperlink ref="E34" r:id="rId29" display="pras@11712" xr:uid="{861DDCFE-AB5A-41B2-A3DD-7376F7927041}"/>
-    <hyperlink ref="E36" r:id="rId30" display="pras@11712" xr:uid="{3ACE0E0E-72D7-44A4-9C50-707C30738217}"/>
+    <hyperlink ref="E2" r:id="rId1" display="pras@11712" xr:uid="{434D6885-CEFA-41C3-9A7E-8D7C194C36D8}"/>
+    <hyperlink ref="A1" r:id="rId2" display="pras@11712" xr:uid="{3D202DB2-124F-4F6B-84CD-93F645C87387}"/>
+    <hyperlink ref="E3:E58" r:id="rId3" display="pras@11712" xr:uid="{AE046B50-9BE7-45AB-AB70-504A7500C3EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>